--- a/tnames_matched_with_egg_and_larva_images.xlsx
+++ b/tnames_matched_with_egg_and_larva_images.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26722"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28440" windowHeight="16980"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="286">
   <si>
     <t>ScientificName</t>
   </si>
@@ -645,36 +645,18 @@
     <t>http://www.marinespecies.org/photogallery.php?album=745&amp;pic=40141</t>
   </si>
   <si>
-    <t>http://images.marinespecies.org/resized/40852_gadus-morhua---larva.jpg</t>
-  </si>
-  <si>
-    <t>http://www.marinespecies.org/photogallery.php?album=745&amp;pic=40852</t>
-  </si>
-  <si>
     <t>http://images.marinespecies.org/resized/40851_gadus-morhua---embryos.jpg</t>
   </si>
   <si>
     <t>http://www.marinespecies.org/photogallery.php?album=745&amp;pic=40851</t>
   </si>
   <si>
-    <t>http://images.marinespecies.org/resized/40497_enchelyopus-cimbrius-larvae.jpg</t>
-  </si>
-  <si>
-    <t>http://www.marinespecies.org/photogallery.php?album=745&amp;pic=40497</t>
-  </si>
-  <si>
     <t>http://images.marinespecies.org/resized/40164_glyptocephalus-cynoglossus.jpg</t>
   </si>
   <si>
     <t>http://www.marinespecies.org/photogallery.php?album=755&amp;pic=40164</t>
   </si>
   <si>
-    <t>http://images.marinespecies.org/resized/40347_glyptocephalus-cynoglossus.jpg</t>
-  </si>
-  <si>
-    <t>http://www.marinespecies.org/photogallery.php?album=755&amp;pic=40347</t>
-  </si>
-  <si>
     <t>http://images.marinespecies.org/resized/40167_hippoglossoides-platessoides.jpg</t>
   </si>
   <si>
@@ -684,12 +666,6 @@
     <t>American plaice</t>
   </si>
   <si>
-    <t>http://images.marinespecies.org/resized/40353_merluccius-bilinearis.jpg</t>
-  </si>
-  <si>
-    <t>http://www.marinespecies.org/photogallery.php?album=745&amp;pic=40353</t>
-  </si>
-  <si>
     <t>http://images.marinespecies.org/resized/40675_merluccius-bilinearis.jpg</t>
   </si>
   <si>
@@ -711,12 +687,6 @@
     <t>http://www.marinespecies.org/photogallery.php?album=745&amp;pic=40149</t>
   </si>
   <si>
-    <t>http://images.marinespecies.org/resized/40856_pseudopleuronectes-americanus.jpg</t>
-  </si>
-  <si>
-    <t>http://www.marinespecies.org/photogallery.php?album=755&amp;pic=40856</t>
-  </si>
-  <si>
     <t>http://images.marinespecies.org/resized/110526_scomber-scombrus---atlantic-mackerel-adult.jpg</t>
   </si>
   <si>
@@ -754,6 +724,159 @@
   </si>
   <si>
     <t>larvaURL</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111773</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111773_alosa-sapidissima-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111766_anguilla-rostrata-larvae.png</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111766</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111797_clupea-harengus-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111797</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111799_enchelyopus-cimbrius-larvae.jpg</t>
+  </si>
+  <si>
+    <t>CaRMS</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111799</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111776_gadus-morhua-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111776</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111777_glyptocephalus-cynoglossus-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111777</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111778_hippoglossoides-platessoides-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111778</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111779_liparis-atlanticus-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111779</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111780_liparis-inquilinus-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111780</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111771_merluccius-bilinearis-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111771</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111782_morone-americana-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111782</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111772_myoxocephalus-aenaeus-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111772</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111785_myoxocephalus-octodecemspinosis-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111785</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111784_osmerus-mordax-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111784</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111786_peprilus-triacanthus-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111786</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111787_perca-flavescens-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111787</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111788_pholis-gunnellus-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111788</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111767_pollachius-virens-larvae-whole.png</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111767</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111789_pseudopleuronectes-americanus-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111789</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111790_scophthalmus-aquosus-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111790</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111768_syngnathus-fuscus-larvae.png</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111768</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111792_tautogolabrus-adspersus-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111792</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111793_ulvaria-subbifurcata-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111793</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111795_urophycis-sp-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111795</t>
+  </si>
+  <si>
+    <t>http://images.vliz.be/resized/111798_alosa-sp-larvae.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/carms/photogallery.php?album=4903&amp;pic=111798</t>
   </si>
 </sst>
 </file>
@@ -832,7 +955,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="234">
+  <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -971,6 +1094,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1084,7 +1217,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="234">
+  <cellStyles count="244">
     <cellStyle name="Bad" xfId="136" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1201,6 +1334,11 @@
     <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="135" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1317,6 +1455,11 @@
     <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="137" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1615,7 +1758,7 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1643,16 +1786,16 @@
         <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>203</v>
@@ -1661,10 +1804,10 @@
         <v>204</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>205</v>
@@ -1735,7 +1878,7 @@
         <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>183</v>
@@ -1746,9 +1889,15 @@
       <c r="F2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="I2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="L2" s="5">
         <v>125715</v>
       </c>
@@ -1806,7 +1955,7 @@
         <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>183</v>
@@ -1817,9 +1966,15 @@
       <c r="F3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="I3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="L3" s="5">
         <v>158670</v>
       </c>
@@ -1880,7 +2035,7 @@
         <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>184</v>
@@ -1891,9 +2046,15 @@
       <c r="F4"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="I4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="L4" s="5">
         <v>158562</v>
       </c>
@@ -1954,7 +2115,7 @@
         <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>185</v>
@@ -1965,9 +2126,15 @@
       <c r="F5"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="I5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="L5" s="5">
         <v>126417</v>
       </c>
@@ -2028,7 +2195,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>186</v>
@@ -2040,13 +2207,13 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="L6" s="5">
         <v>126450</v>
@@ -2108,7 +2275,7 @@
         <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>206</v>
@@ -2117,22 +2284,22 @@
         <v>207</v>
       </c>
       <c r="F7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="L7" s="5">
         <v>126436</v>
@@ -2194,25 +2361,25 @@
         <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="L8" s="5">
         <v>127136</v>
@@ -2271,23 +2438,29 @@
         <v>112</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="I9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="L9" s="5">
         <v>127137</v>
       </c>
@@ -2348,7 +2521,7 @@
         <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>187</v>
@@ -2359,9 +2532,15 @@
       <c r="F10"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="I10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="L10" s="5">
         <v>159524</v>
       </c>
@@ -2422,7 +2601,7 @@
         <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>188</v>
@@ -2433,9 +2612,15 @@
       <c r="F11"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="I11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="L11" s="5">
         <v>159528</v>
       </c>
@@ -2496,25 +2681,25 @@
         <v>189</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="L12" s="5">
         <v>158962</v>
@@ -2576,7 +2761,7 @@
         <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>190</v>
@@ -2587,9 +2772,15 @@
       <c r="F13"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="I13" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="L13" s="5">
         <v>151177</v>
       </c>
@@ -2650,7 +2841,7 @@
         <v>158</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>191</v>
@@ -2661,9 +2852,15 @@
       <c r="F14"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="I14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="L14" s="5">
         <v>159519</v>
       </c>
@@ -2724,7 +2921,7 @@
         <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>192</v>
@@ -2735,9 +2932,15 @@
       <c r="F15"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="I15" t="s">
+        <v>242</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="L15" s="5">
         <v>159520</v>
       </c>
@@ -2798,7 +3001,7 @@
         <v>162</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>193</v>
@@ -2809,9 +3012,15 @@
       <c r="F16"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="I16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="L16" s="5">
         <v>126737</v>
       </c>
@@ -2869,10 +3078,10 @@
         <v>134</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>194</v>
@@ -2883,9 +3092,15 @@
       <c r="F17"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="I17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="L17" s="5">
         <v>159828</v>
       </c>
@@ -2946,7 +3161,7 @@
         <v>165</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>202</v>
@@ -2957,9 +3172,15 @@
       <c r="F18"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="I18" t="s">
+        <v>242</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="L18" s="5">
         <v>275313</v>
       </c>
@@ -3020,20 +3241,26 @@
         <v>166</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="I19" t="s">
+        <v>242</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="L19" s="5">
         <v>126996</v>
       </c>
@@ -3094,20 +3321,26 @@
         <v>167</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="I20" t="s">
+        <v>242</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="L20" s="5">
         <v>126441</v>
       </c>
@@ -3168,7 +3401,7 @@
         <v>168</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>195</v>
@@ -3180,13 +3413,13 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" t="s">
-        <v>243</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="L21" s="5">
         <v>158885</v>
@@ -3248,25 +3481,25 @@
         <v>170</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="L22" s="5">
         <v>127023</v>
@@ -3328,7 +3561,7 @@
         <v>171</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>196</v>
@@ -3339,9 +3572,15 @@
       <c r="F23"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="I23" t="s">
+        <v>242</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="L23" s="5">
         <v>158907</v>
       </c>
@@ -3402,7 +3641,7 @@
         <v>172</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>197</v>
@@ -3413,9 +3652,15 @@
       <c r="F24"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="I24" t="s">
+        <v>242</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="L24" s="5">
         <v>159451</v>
       </c>
@@ -3476,7 +3721,7 @@
         <v>175</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>198</v>
@@ -3487,9 +3732,15 @@
       <c r="F25"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="I25" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="L25" s="5">
         <v>159785</v>
       </c>
@@ -3550,7 +3801,7 @@
         <v>176</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>199</v>
@@ -3561,9 +3812,15 @@
       <c r="F26"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="I26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="L26" s="5">
         <v>159821</v>
       </c>
@@ -3624,7 +3881,7 @@
         <v>178</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>200</v>
@@ -3635,9 +3892,15 @@
       <c r="F27"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="L27" s="5">
         <v>125774</v>
       </c>
